--- a/docs/CareConnect-DiagnosticReport-1.xlsx
+++ b/docs/CareConnect-DiagnosticReport-1.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$126</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$84</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4406" uniqueCount="489">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2951" uniqueCount="447">
   <si>
     <t>Path</t>
   </si>
@@ -499,7 +499,7 @@
     <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
   </si>
   <si>
-    <t>http://www.acme.com/identifiers/patient or urn:ietf:rfc:3986 if the Identifier.value itself is a full uri</t>
+    <t>http://www.acme.com/identifiers/patient</t>
   </si>
   <si>
     <t>Identifier.system</t>
@@ -738,79 +738,6 @@
     <t>The SNOMED CT Description ID for the display.</t>
   </si>
   <si>
-    <t>DiagnosticReport.category.coding.extension.id</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.category.coding.extension.extension</t>
-  </si>
-  <si>
-    <t>descriptionId</t>
-  </si>
-  <si>
-    <t>The SNOMED CT Description ID</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.category.coding.extension.extension.id</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.category.coding.extension.extension.extension</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.category.coding.extension.extension.url</t>
-  </si>
-  <si>
-    <t>identifies the meaning of the extension</t>
-  </si>
-  <si>
-    <t>Source of the definition for the extension code - a logical name or a URL.</t>
-  </si>
-  <si>
-    <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
-  </si>
-  <si>
-    <t>Extension.url</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.category.coding.extension.extension.valueId</t>
-  </si>
-  <si>
-    <t>valueId</t>
-  </si>
-  <si>
-    <t>Value of extension - may be a resource or one of a constrained set of the data types (see Extensibility in the spec for list).</t>
-  </si>
-  <si>
-    <t>Extension.value[x]</t>
-  </si>
-  <si>
-    <t>descriptionDisplay</t>
-  </si>
-  <si>
-    <t>The SNOMED CT display for the description ID</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.category.coding.extension.extension.valueString</t>
-  </si>
-  <si>
-    <t>valueString</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.category.coding.extension.url</t>
-  </si>
-  <si>
-    <t>https://fhir.hl7.org.uk/STU3/StructureDefinition/Extension-coding-sctdescid</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.category.coding.extension.value[x]</t>
-  </si>
-  <si>
-    <t>base64Binary
-booleancodedatedateTimedecimalidinstantintegermarkdownoidpositiveIntstringtimeunsignedInturiAddressAgeAnnotationAttachmentCodeableConceptCodingContactPointCountDistanceDurationHumanNameIdentifierMoneyPeriodQuantityRangeRatioReferenceSampledDataSignatureTiming</t>
-  </si>
-  <si>
-    <t>Value of extension</t>
-  </si>
-  <si>
     <t>DiagnosticReport.category.coding.system</t>
   </si>
   <si>
@@ -1005,33 +932,6 @@
     <t>DiagnosticReport.code.coding.extension</t>
   </si>
   <si>
-    <t>DiagnosticReport.code.coding.extension.id</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.code.coding.extension.extension</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.code.coding.extension.extension.id</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.code.coding.extension.extension.extension</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.code.coding.extension.extension.url</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.code.coding.extension.extension.valueId</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.code.coding.extension.extension.valueString</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.code.coding.extension.url</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.code.coding.extension.value[x]</t>
-  </si>
-  <si>
     <t>DiagnosticReport.code.coding.system</t>
   </si>
   <si>
@@ -1467,33 +1367,6 @@
   </si>
   <si>
     <t>DiagnosticReport.codedDiagnosis.coding.extension</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.codedDiagnosis.coding.extension.id</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.codedDiagnosis.coding.extension.extension</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.codedDiagnosis.coding.extension.extension.id</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.codedDiagnosis.coding.extension.extension.extension</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.codedDiagnosis.coding.extension.extension.url</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.codedDiagnosis.coding.extension.extension.valueId</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.codedDiagnosis.coding.extension.extension.valueString</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.codedDiagnosis.coding.extension.url</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.codedDiagnosis.coding.extension.value[x]</t>
   </si>
   <si>
     <t>DiagnosticReport.codedDiagnosis.coding.system</t>
@@ -1682,7 +1555,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM126"/>
+  <dimension ref="A1:AM84"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1691,7 +1564,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="66.59375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="49.53515625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="22.59765625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="60.54296875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
@@ -4969,7 +4842,7 @@
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="F30" t="s" s="2">
         <v>53</v>
@@ -4981,25 +4854,29 @@
         <v>43</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>119</v>
+        <v>66</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>120</v>
+        <v>232</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="M30" s="2"/>
-      <c r="N30" s="2"/>
+        <v>233</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>235</v>
+      </c>
       <c r="O30" t="s" s="2">
         <v>43</v>
       </c>
       <c r="P30" s="2"/>
       <c r="Q30" t="s" s="2">
-        <v>43</v>
+        <v>236</v>
       </c>
       <c r="R30" t="s" s="2">
         <v>43</v>
@@ -5041,7 +4918,7 @@
         <v>43</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>122</v>
+        <v>237</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>41</v>
@@ -5059,10 +4936,10 @@
         <v>43</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>43</v>
+        <v>238</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>123</v>
+        <v>239</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>43</v>
@@ -5070,7 +4947,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5081,7 +4958,7 @@
         <v>41</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>43</v>
@@ -5090,18 +4967,20 @@
         <v>43</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>99</v>
+        <v>119</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>225</v>
+        <v>241</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="M31" s="2"/>
+        <v>242</v>
+      </c>
+      <c r="M31" t="s" s="2">
+        <v>243</v>
+      </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
         <v>43</v>
@@ -5138,25 +5017,25 @@
         <v>43</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>126</v>
+        <v>43</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>127</v>
+        <v>43</v>
       </c>
       <c r="AC31" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>128</v>
+        <v>43</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>129</v>
+        <v>244</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>43</v>
@@ -5168,10 +5047,10 @@
         <v>43</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>43</v>
+        <v>245</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>43</v>
+        <v>246</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>43</v>
@@ -5179,11 +5058,9 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="B32" t="s" s="2">
-        <v>233</v>
-      </c>
+        <v>247</v>
+      </c>
+      <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
         <v>43</v>
       </c>
@@ -5201,19 +5078,21 @@
         <v>43</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>99</v>
+        <v>72</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>226</v>
+        <v>249</v>
       </c>
       <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
+      <c r="N32" t="s" s="2">
+        <v>250</v>
+      </c>
       <c r="O32" t="s" s="2">
         <v>43</v>
       </c>
@@ -5261,13 +5140,13 @@
         <v>43</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>129</v>
+        <v>251</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>43</v>
@@ -5279,10 +5158,10 @@
         <v>43</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>43</v>
+        <v>252</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>43</v>
+        <v>253</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>43</v>
@@ -5290,7 +5169,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>235</v>
+        <v>254</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5298,7 +5177,7 @@
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="F33" t="s" s="2">
         <v>53</v>
@@ -5310,19 +5189,21 @@
         <v>43</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="J33" t="s" s="2">
         <v>119</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>120</v>
+        <v>255</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>121</v>
+        <v>256</v>
       </c>
       <c r="M33" s="2"/>
-      <c r="N33" s="2"/>
+      <c r="N33" t="s" s="2">
+        <v>257</v>
+      </c>
       <c r="O33" t="s" s="2">
         <v>43</v>
       </c>
@@ -5370,7 +5251,7 @@
         <v>43</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>122</v>
+        <v>258</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>41</v>
@@ -5388,10 +5269,10 @@
         <v>43</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>43</v>
+        <v>259</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>123</v>
+        <v>260</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>43</v>
@@ -5399,18 +5280,18 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>236</v>
+        <v>261</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>98</v>
+        <v>43</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>43</v>
@@ -5419,21 +5300,23 @@
         <v>43</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>99</v>
+        <v>262</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>100</v>
+        <v>263</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>125</v>
+        <v>264</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="N34" s="2"/>
+        <v>265</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>266</v>
+      </c>
       <c r="O34" t="s" s="2">
         <v>43</v>
       </c>
@@ -5469,25 +5352,25 @@
         <v>43</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>126</v>
+        <v>43</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>127</v>
+        <v>43</v>
       </c>
       <c r="AC34" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>128</v>
+        <v>43</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>129</v>
+        <v>267</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>43</v>
@@ -5499,10 +5382,10 @@
         <v>43</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>43</v>
+        <v>268</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>123</v>
+        <v>269</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>43</v>
@@ -5510,7 +5393,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>237</v>
+        <v>270</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5518,7 +5401,7 @@
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="F35" t="s" s="2">
         <v>53</v>
@@ -5530,27 +5413,29 @@
         <v>43</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>66</v>
+        <v>119</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>238</v>
+        <v>271</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>239</v>
+        <v>272</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="N35" s="2"/>
+        <v>273</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>274</v>
+      </c>
       <c r="O35" t="s" s="2">
         <v>43</v>
       </c>
       <c r="P35" s="2"/>
       <c r="Q35" t="s" s="2">
-        <v>233</v>
+        <v>43</v>
       </c>
       <c r="R35" t="s" s="2">
         <v>43</v>
@@ -5592,10 +5477,10 @@
         <v>43</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>241</v>
+        <v>275</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>53</v>
@@ -5610,10 +5495,10 @@
         <v>43</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>43</v>
+        <v>276</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>96</v>
+        <v>277</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>43</v>
@@ -5621,17 +5506,15 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="B36" t="s" s="2">
-        <v>243</v>
-      </c>
+        <v>278</v>
+      </c>
+      <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>43</v>
+        <v>279</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="F36" t="s" s="2">
         <v>53</v>
@@ -5643,16 +5526,16 @@
         <v>43</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>55</v>
+        <v>141</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>234</v>
+        <v>280</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>244</v>
+        <v>281</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5679,13 +5562,13 @@
         <v>43</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>43</v>
+        <v>206</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>43</v>
+        <v>282</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>43</v>
+        <v>283</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>43</v>
@@ -5703,10 +5586,10 @@
         <v>43</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>245</v>
+        <v>278</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>53</v>
@@ -5718,31 +5601,29 @@
         <v>43</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>43</v>
+        <v>284</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>43</v>
+        <v>285</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>96</v>
+        <v>286</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>43</v>
+        <v>287</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="B37" t="s" s="2">
-        <v>246</v>
-      </c>
+        <v>288</v>
+      </c>
+      <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
         <v>43</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="F37" t="s" s="2">
         <v>53</v>
@@ -5757,13 +5638,13 @@
         <v>43</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>99</v>
+        <v>119</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>247</v>
+        <v>120</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>226</v>
+        <v>121</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -5814,13 +5695,13 @@
         <v>43</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>43</v>
@@ -5835,7 +5716,7 @@
         <v>43</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>43</v>
+        <v>123</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>43</v>
@@ -5843,18 +5724,18 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>235</v>
+        <v>289</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>43</v>
+        <v>98</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>43</v>
@@ -5866,15 +5747,17 @@
         <v>43</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>119</v>
+        <v>99</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="M38" s="2"/>
+        <v>125</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>102</v>
+      </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>43</v>
@@ -5911,25 +5794,25 @@
         <v>43</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>43</v>
+        <v>126</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>43</v>
+        <v>127</v>
       </c>
       <c r="AC38" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>43</v>
+        <v>128</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>43</v>
@@ -5952,11 +5835,11 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>236</v>
+        <v>290</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>98</v>
+        <v>43</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
@@ -5972,21 +5855,23 @@
         <v>43</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>99</v>
+        <v>213</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>100</v>
+        <v>214</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>125</v>
+        <v>215</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="N39" s="2"/>
+        <v>216</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>217</v>
+      </c>
       <c r="O39" t="s" s="2">
         <v>43</v>
       </c>
@@ -6022,11 +5907,9 @@
         <v>43</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="AB39" t="s" s="2">
-        <v>127</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="AB39" s="2"/>
       <c r="AC39" t="s" s="2">
         <v>43</v>
       </c>
@@ -6034,7 +5917,7 @@
         <v>128</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>129</v>
+        <v>219</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>41</v>
@@ -6052,10 +5935,10 @@
         <v>43</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>43</v>
+        <v>220</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>123</v>
+        <v>221</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>43</v>
@@ -6063,18 +5946,20 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="B40" s="2"/>
+        <v>290</v>
+      </c>
+      <c r="B40" t="s" s="2">
+        <v>222</v>
+      </c>
       <c r="C40" t="s" s="2">
         <v>43</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>43</v>
@@ -6083,27 +5968,29 @@
         <v>43</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>66</v>
+        <v>213</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>238</v>
+        <v>214</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>239</v>
+        <v>215</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="N40" s="2"/>
+        <v>216</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>217</v>
+      </c>
       <c r="O40" t="s" s="2">
         <v>43</v>
       </c>
       <c r="P40" s="2"/>
       <c r="Q40" t="s" s="2">
-        <v>246</v>
+        <v>43</v>
       </c>
       <c r="R40" t="s" s="2">
         <v>43</v>
@@ -6121,13 +6008,13 @@
         <v>43</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>43</v>
+        <v>291</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>43</v>
+        <v>292</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>43</v>
@@ -6145,13 +6032,13 @@
         <v>43</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>241</v>
+        <v>219</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>43</v>
@@ -6163,10 +6050,10 @@
         <v>43</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>43</v>
+        <v>220</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>96</v>
+        <v>221</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>43</v>
@@ -6174,11 +6061,9 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="B41" t="s" s="2">
-        <v>249</v>
-      </c>
+        <v>293</v>
+      </c>
+      <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
         <v>43</v>
       </c>
@@ -6202,10 +6087,10 @@
         <v>119</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>247</v>
+        <v>120</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>244</v>
+        <v>121</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -6256,7 +6141,7 @@
         <v>43</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>245</v>
+        <v>122</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>41</v>
@@ -6277,7 +6162,7 @@
         <v>43</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>96</v>
+        <v>123</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>43</v>
@@ -6285,7 +6170,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>250</v>
+        <v>294</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6293,10 +6178,10 @@
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>43</v>
@@ -6308,24 +6193,22 @@
         <v>43</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>66</v>
+        <v>99</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>238</v>
+        <v>225</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>240</v>
-      </c>
+        <v>226</v>
+      </c>
+      <c r="M42" s="2"/>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>43</v>
       </c>
       <c r="P42" s="2"/>
       <c r="Q42" t="s" s="2">
-        <v>251</v>
+        <v>43</v>
       </c>
       <c r="R42" t="s" s="2">
         <v>43</v>
@@ -6355,25 +6238,25 @@
         <v>43</v>
       </c>
       <c r="AA42" t="s" s="2">
-        <v>43</v>
+        <v>126</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>43</v>
+        <v>127</v>
       </c>
       <c r="AC42" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AD42" t="s" s="2">
-        <v>43</v>
+        <v>128</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>241</v>
+        <v>129</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>43</v>
@@ -6388,7 +6271,7 @@
         <v>43</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>96</v>
+        <v>43</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>43</v>
@@ -6396,9 +6279,11 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="B43" s="2"/>
+        <v>294</v>
+      </c>
+      <c r="B43" t="s" s="2">
+        <v>227</v>
+      </c>
       <c r="C43" t="s" s="2">
         <v>43</v>
       </c>
@@ -6407,7 +6292,7 @@
         <v>41</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>43</v>
@@ -6419,13 +6304,13 @@
         <v>43</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>253</v>
+        <v>228</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>254</v>
+        <v>229</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>244</v>
+        <v>230</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -6476,13 +6361,13 @@
         <v>43</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>245</v>
+        <v>129</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>43</v>
@@ -6497,7 +6382,7 @@
         <v>43</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>96</v>
+        <v>43</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>43</v>
@@ -6505,7 +6390,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>255</v>
+        <v>295</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6531,23 +6416,23 @@
         <v>66</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>256</v>
+        <v>232</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>257</v>
+        <v>233</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>258</v>
+        <v>234</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>259</v>
+        <v>235</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>43</v>
       </c>
       <c r="P44" s="2"/>
       <c r="Q44" t="s" s="2">
-        <v>260</v>
+        <v>236</v>
       </c>
       <c r="R44" t="s" s="2">
         <v>43</v>
@@ -6589,7 +6474,7 @@
         <v>43</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>261</v>
+        <v>237</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>41</v>
@@ -6607,10 +6492,10 @@
         <v>43</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>262</v>
+        <v>238</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>263</v>
+        <v>239</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>43</v>
@@ -6618,7 +6503,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>264</v>
+        <v>296</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6644,13 +6529,13 @@
         <v>119</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>265</v>
+        <v>241</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>266</v>
+        <v>242</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>267</v>
+        <v>243</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
@@ -6700,7 +6585,7 @@
         <v>43</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>268</v>
+        <v>244</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>41</v>
@@ -6718,10 +6603,10 @@
         <v>43</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>269</v>
+        <v>245</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>270</v>
+        <v>246</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>43</v>
@@ -6729,7 +6614,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>271</v>
+        <v>297</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6755,14 +6640,14 @@
         <v>72</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>272</v>
+        <v>248</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>273</v>
+        <v>249</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" t="s" s="2">
-        <v>274</v>
+        <v>250</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>43</v>
@@ -6811,7 +6696,7 @@
         <v>43</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>275</v>
+        <v>251</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>41</v>
@@ -6829,10 +6714,10 @@
         <v>43</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>276</v>
+        <v>252</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>277</v>
+        <v>253</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>43</v>
@@ -6840,7 +6725,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>278</v>
+        <v>298</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6866,14 +6751,14 @@
         <v>119</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>279</v>
+        <v>255</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>280</v>
+        <v>256</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" t="s" s="2">
-        <v>281</v>
+        <v>257</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>43</v>
@@ -6922,7 +6807,7 @@
         <v>43</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>282</v>
+        <v>258</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>41</v>
@@ -6940,10 +6825,10 @@
         <v>43</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>283</v>
+        <v>259</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>284</v>
+        <v>260</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>43</v>
@@ -6951,7 +6836,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>285</v>
+        <v>299</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6974,19 +6859,19 @@
         <v>54</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>286</v>
+        <v>262</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>287</v>
+        <v>263</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>288</v>
+        <v>264</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>289</v>
+        <v>265</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>290</v>
+        <v>266</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>43</v>
@@ -7035,7 +6920,7 @@
         <v>43</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>291</v>
+        <v>267</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>41</v>
@@ -7053,10 +6938,10 @@
         <v>43</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>292</v>
+        <v>268</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>293</v>
+        <v>269</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>43</v>
@@ -7064,7 +6949,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7090,16 +6975,16 @@
         <v>119</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>295</v>
+        <v>271</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>296</v>
+        <v>272</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>297</v>
+        <v>273</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>298</v>
+        <v>274</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>43</v>
@@ -7148,7 +7033,7 @@
         <v>43</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>299</v>
+        <v>275</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>41</v>
@@ -7166,10 +7051,10 @@
         <v>43</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>300</v>
+        <v>276</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>301</v>
+        <v>277</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>43</v>
@@ -7177,11 +7062,11 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
@@ -7200,7 +7085,7 @@
         <v>54</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>141</v>
+        <v>303</v>
       </c>
       <c r="K50" t="s" s="2">
         <v>304</v>
@@ -7209,7 +7094,9 @@
         <v>305</v>
       </c>
       <c r="M50" s="2"/>
-      <c r="N50" s="2"/>
+      <c r="N50" t="s" s="2">
+        <v>306</v>
+      </c>
       <c r="O50" t="s" s="2">
         <v>43</v>
       </c>
@@ -7233,64 +7120,64 @@
         <v>43</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>206</v>
+        <v>43</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>306</v>
+        <v>43</v>
       </c>
       <c r="Y50" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Z50" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA50" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB50" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC50" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD50" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE50" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="AF50" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG50" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AH50" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI50" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
         <v>307</v>
       </c>
-      <c r="Z50" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA50" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB50" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC50" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD50" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE50" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="AF50" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AG50" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AH50" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI50" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AJ50" t="s" s="2">
+      <c r="AK50" t="s" s="2">
         <v>308</v>
       </c>
-      <c r="AK50" t="s" s="2">
+      <c r="AL50" t="s" s="2">
         <v>309</v>
       </c>
-      <c r="AL50" t="s" s="2">
+      <c r="AM50" t="s" s="2">
         <v>310</v>
-      </c>
-      <c r="AM50" t="s" s="2">
-        <v>311</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>43</v>
+        <v>312</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
@@ -7306,19 +7193,23 @@
         <v>43</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>119</v>
+        <v>313</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>120</v>
+        <v>314</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="M51" s="2"/>
-      <c r="N51" s="2"/>
+        <v>315</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>317</v>
+      </c>
       <c r="O51" t="s" s="2">
         <v>43</v>
       </c>
@@ -7366,7 +7257,7 @@
         <v>43</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>122</v>
+        <v>311</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>41</v>
@@ -7381,32 +7272,32 @@
         <v>43</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>43</v>
+        <v>318</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>43</v>
+        <v>319</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>123</v>
+        <v>320</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>43</v>
+        <v>321</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>313</v>
+        <v>322</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>98</v>
+        <v>323</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>43</v>
@@ -7415,21 +7306,23 @@
         <v>43</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>99</v>
+        <v>324</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>100</v>
+        <v>325</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>125</v>
+        <v>326</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="N52" s="2"/>
+        <v>327</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>328</v>
+      </c>
       <c r="O52" t="s" s="2">
         <v>43</v>
       </c>
@@ -7465,25 +7358,25 @@
         <v>43</v>
       </c>
       <c r="AA52" t="s" s="2">
-        <v>126</v>
+        <v>43</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>127</v>
+        <v>43</v>
       </c>
       <c r="AC52" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AD52" t="s" s="2">
-        <v>128</v>
+        <v>43</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>129</v>
+        <v>322</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>43</v>
@@ -7492,32 +7385,32 @@
         <v>43</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>43</v>
+        <v>329</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>43</v>
+        <v>330</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>123</v>
+        <v>331</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>43</v>
+        <v>332</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>314</v>
+        <v>333</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>43</v>
+        <v>334</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>43</v>
@@ -7529,19 +7422,19 @@
         <v>54</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>213</v>
+        <v>335</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>214</v>
+        <v>336</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>215</v>
+        <v>337</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>216</v>
+        <v>338</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>217</v>
+        <v>339</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>43</v>
@@ -7578,23 +7471,25 @@
         <v>43</v>
       </c>
       <c r="AA53" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="AB53" s="2"/>
+        <v>43</v>
+      </c>
+      <c r="AB53" t="s" s="2">
+        <v>43</v>
+      </c>
       <c r="AC53" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AD53" t="s" s="2">
-        <v>128</v>
+        <v>43</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>219</v>
+        <v>333</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>43</v>
@@ -7606,24 +7501,22 @@
         <v>43</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>220</v>
+        <v>340</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>221</v>
+        <v>341</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>43</v>
+        <v>342</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="B54" t="s" s="2">
-        <v>222</v>
-      </c>
+        <v>343</v>
+      </c>
+      <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>43</v>
+        <v>344</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
@@ -7642,20 +7535,16 @@
         <v>54</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>213</v>
+        <v>345</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>214</v>
+        <v>346</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>217</v>
-      </c>
+        <v>347</v>
+      </c>
+      <c r="M54" s="2"/>
+      <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
         <v>43</v>
       </c>
@@ -7679,13 +7568,13 @@
         <v>43</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>315</v>
+        <v>43</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>316</v>
+        <v>43</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>43</v>
@@ -7703,7 +7592,7 @@
         <v>43</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>219</v>
+        <v>343</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>41</v>
@@ -7715,24 +7604,24 @@
         <v>43</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>43</v>
+        <v>348</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>43</v>
+        <v>349</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>220</v>
+        <v>350</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>221</v>
+        <v>351</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>43</v>
+        <v>352</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>317</v>
+        <v>353</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7841,11 +7730,11 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>318</v>
+        <v>354</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>43</v>
+        <v>98</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
@@ -7867,12 +7756,14 @@
         <v>99</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>225</v>
+        <v>100</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="M56" s="2"/>
+        <v>125</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>102</v>
+      </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
         <v>43</v>
@@ -7909,16 +7800,16 @@
         <v>43</v>
       </c>
       <c r="AA56" t="s" s="2">
-        <v>126</v>
+        <v>43</v>
       </c>
       <c r="AB56" t="s" s="2">
-        <v>127</v>
+        <v>43</v>
       </c>
       <c r="AC56" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AD56" t="s" s="2">
-        <v>128</v>
+        <v>43</v>
       </c>
       <c r="AE56" t="s" s="2">
         <v>129</v>
@@ -7942,7 +7833,7 @@
         <v>43</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>43</v>
+        <v>123</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>43</v>
@@ -7950,13 +7841,11 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="B57" t="s" s="2">
-        <v>227</v>
-      </c>
+        <v>355</v>
+      </c>
+      <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>43</v>
+        <v>356</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
@@ -7969,21 +7858,23 @@
         <v>43</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>228</v>
+        <v>99</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>229</v>
+        <v>105</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="M57" s="2"/>
+        <v>357</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>102</v>
+      </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
         <v>43</v>
@@ -8032,7 +7923,7 @@
         <v>43</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>129</v>
+        <v>358</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>41</v>
@@ -8053,7 +7944,7 @@
         <v>43</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>43</v>
+        <v>96</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>43</v>
@@ -8061,7 +7952,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>319</v>
+        <v>359</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8081,16 +7972,16 @@
         <v>43</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>119</v>
+        <v>141</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>120</v>
+        <v>360</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>121</v>
+        <v>361</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -8117,13 +8008,13 @@
         <v>43</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>43</v>
+        <v>362</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>43</v>
+        <v>363</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>43</v>
+        <v>364</v>
       </c>
       <c r="Z58" t="s" s="2">
         <v>43</v>
@@ -8141,7 +8032,7 @@
         <v>43</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>122</v>
+        <v>359</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>41</v>
@@ -8156,13 +8047,13 @@
         <v>43</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>43</v>
+        <v>365</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>43</v>
+        <v>350</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>123</v>
+        <v>366</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>43</v>
@@ -8170,7 +8061,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>320</v>
+        <v>367</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8178,10 +8069,10 @@
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>43</v>
@@ -8190,19 +8081,23 @@
         <v>43</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>99</v>
+        <v>368</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>225</v>
+        <v>369</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="M59" s="2"/>
-      <c r="N59" s="2"/>
+        <v>370</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>372</v>
+      </c>
       <c r="O59" t="s" s="2">
         <v>43</v>
       </c>
@@ -8238,25 +8133,25 @@
         <v>43</v>
       </c>
       <c r="AA59" t="s" s="2">
-        <v>126</v>
+        <v>43</v>
       </c>
       <c r="AB59" t="s" s="2">
-        <v>127</v>
+        <v>43</v>
       </c>
       <c r="AC59" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AD59" t="s" s="2">
-        <v>128</v>
+        <v>43</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>129</v>
+        <v>367</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>43</v>
@@ -8265,13 +8160,13 @@
         <v>43</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>43</v>
+        <v>373</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>43</v>
+        <v>350</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>43</v>
+        <v>374</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>43</v>
@@ -8279,20 +8174,18 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="B60" t="s" s="2">
-        <v>233</v>
-      </c>
+        <v>375</v>
+      </c>
+      <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
         <v>43</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>43</v>
@@ -8304,16 +8197,20 @@
         <v>43</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>99</v>
+        <v>376</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>234</v>
+        <v>377</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="M60" s="2"/>
-      <c r="N60" s="2"/>
+        <v>378</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>380</v>
+      </c>
       <c r="O60" t="s" s="2">
         <v>43</v>
       </c>
@@ -8361,7 +8258,7 @@
         <v>43</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>129</v>
+        <v>375</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>41</v>
@@ -8379,10 +8276,10 @@
         <v>43</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>43</v>
+        <v>381</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>43</v>
+        <v>309</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>43</v>
@@ -8390,18 +8287,18 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>321</v>
+        <v>382</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>43</v>
+        <v>383</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>43</v>
@@ -8413,16 +8310,18 @@
         <v>43</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>119</v>
+        <v>384</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>120</v>
+        <v>385</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>121</v>
+        <v>386</v>
       </c>
       <c r="M61" s="2"/>
-      <c r="N61" s="2"/>
+      <c r="N61" t="s" s="2">
+        <v>387</v>
+      </c>
       <c r="O61" t="s" s="2">
         <v>43</v>
       </c>
@@ -8470,13 +8369,13 @@
         <v>43</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>122</v>
+        <v>382</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>43</v>
@@ -8488,10 +8387,10 @@
         <v>43</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>43</v>
+        <v>388</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>123</v>
+        <v>389</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>43</v>
@@ -8499,11 +8398,11 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>322</v>
+        <v>390</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>98</v>
+        <v>43</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
@@ -8522,16 +8421,16 @@
         <v>43</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>99</v>
+        <v>391</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>100</v>
+        <v>392</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>125</v>
+        <v>393</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>102</v>
+        <v>394</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
@@ -8569,19 +8468,19 @@
         <v>43</v>
       </c>
       <c r="AA62" t="s" s="2">
-        <v>126</v>
+        <v>43</v>
       </c>
       <c r="AB62" t="s" s="2">
-        <v>127</v>
+        <v>43</v>
       </c>
       <c r="AC62" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AD62" t="s" s="2">
-        <v>128</v>
+        <v>43</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>129</v>
+        <v>390</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>41</v>
@@ -8602,7 +8501,7 @@
         <v>43</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>123</v>
+        <v>395</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>43</v>
@@ -8610,18 +8509,18 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>323</v>
+        <v>396</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>43</v>
+        <v>397</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>43</v>
@@ -8630,27 +8529,27 @@
         <v>43</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>66</v>
+        <v>345</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>238</v>
+        <v>398</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="N63" s="2"/>
+        <v>399</v>
+      </c>
+      <c r="M63" s="2"/>
+      <c r="N63" t="s" s="2">
+        <v>400</v>
+      </c>
       <c r="O63" t="s" s="2">
         <v>43</v>
       </c>
       <c r="P63" s="2"/>
       <c r="Q63" t="s" s="2">
-        <v>233</v>
+        <v>43</v>
       </c>
       <c r="R63" t="s" s="2">
         <v>43</v>
@@ -8692,28 +8591,28 @@
         <v>43</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>241</v>
+        <v>396</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>43</v>
+        <v>348</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>43</v>
+        <v>401</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>96</v>
+        <v>389</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>43</v>
@@ -8721,11 +8620,9 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="B64" t="s" s="2">
-        <v>243</v>
-      </c>
+        <v>402</v>
+      </c>
+      <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
         <v>43</v>
       </c>
@@ -8746,13 +8643,13 @@
         <v>43</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>55</v>
+        <v>119</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>234</v>
+        <v>120</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>244</v>
+        <v>121</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -8803,7 +8700,7 @@
         <v>43</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>245</v>
+        <v>122</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>41</v>
@@ -8824,7 +8721,7 @@
         <v>43</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>96</v>
+        <v>123</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>43</v>
@@ -8832,20 +8729,18 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="B65" t="s" s="2">
-        <v>246</v>
-      </c>
+        <v>403</v>
+      </c>
+      <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>43</v>
+        <v>98</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>43</v>
@@ -8860,12 +8755,14 @@
         <v>99</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>247</v>
+        <v>100</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="M65" s="2"/>
+        <v>125</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>102</v>
+      </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
         <v>43</v>
@@ -8935,7 +8832,7 @@
         <v>43</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>43</v>
+        <v>123</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>43</v>
@@ -8943,38 +8840,40 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>321</v>
+        <v>404</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>43</v>
+        <v>356</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>43</v>
       </c>
       <c r="H66" t="s" s="2">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>119</v>
+        <v>99</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="M66" s="2"/>
+        <v>357</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>102</v>
+      </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
         <v>43</v>
@@ -9023,13 +8922,13 @@
         <v>43</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>122</v>
+        <v>358</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>43</v>
@@ -9044,7 +8943,7 @@
         <v>43</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>123</v>
+        <v>96</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>43</v>
@@ -9052,18 +8951,18 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>322</v>
+        <v>405</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
-        <v>98</v>
+        <v>43</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>43</v>
@@ -9075,18 +8974,20 @@
         <v>43</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>99</v>
+        <v>119</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>100</v>
+        <v>406</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>125</v>
+        <v>407</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="N67" s="2"/>
+        <v>408</v>
+      </c>
+      <c r="N67" t="s" s="2">
+        <v>409</v>
+      </c>
       <c r="O67" t="s" s="2">
         <v>43</v>
       </c>
@@ -9122,25 +9023,25 @@
         <v>43</v>
       </c>
       <c r="AA67" t="s" s="2">
-        <v>126</v>
+        <v>43</v>
       </c>
       <c r="AB67" t="s" s="2">
-        <v>127</v>
+        <v>43</v>
       </c>
       <c r="AC67" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AD67" t="s" s="2">
-        <v>128</v>
+        <v>43</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>129</v>
+        <v>405</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>43</v>
@@ -9155,7 +9056,7 @@
         <v>43</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>123</v>
+        <v>410</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>43</v>
@@ -9163,7 +9064,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>323</v>
+        <v>411</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9183,27 +9084,25 @@
         <v>43</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>66</v>
+        <v>412</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>238</v>
+        <v>413</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>240</v>
-      </c>
+        <v>414</v>
+      </c>
+      <c r="M68" s="2"/>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
         <v>43</v>
       </c>
       <c r="P68" s="2"/>
       <c r="Q68" t="s" s="2">
-        <v>246</v>
+        <v>43</v>
       </c>
       <c r="R68" t="s" s="2">
         <v>43</v>
@@ -9245,7 +9144,7 @@
         <v>43</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>241</v>
+        <v>411</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>53</v>
@@ -9266,7 +9165,7 @@
         <v>43</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>96</v>
+        <v>415</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>43</v>
@@ -9274,13 +9173,11 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="B69" t="s" s="2">
-        <v>249</v>
-      </c>
+        <v>416</v>
+      </c>
+      <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
-        <v>43</v>
+        <v>417</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
@@ -9302,13 +9199,15 @@
         <v>119</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>247</v>
+        <v>418</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>244</v>
+        <v>419</v>
       </c>
       <c r="M69" s="2"/>
-      <c r="N69" s="2"/>
+      <c r="N69" t="s" s="2">
+        <v>420</v>
+      </c>
       <c r="O69" t="s" s="2">
         <v>43</v>
       </c>
@@ -9356,7 +9255,7 @@
         <v>43</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>245</v>
+        <v>416</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>41</v>
@@ -9374,10 +9273,10 @@
         <v>43</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>43</v>
+        <v>421</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>96</v>
+        <v>422</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>43</v>
@@ -9385,7 +9284,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>326</v>
+        <v>423</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9393,10 +9292,10 @@
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>43</v>
@@ -9408,24 +9307,22 @@
         <v>43</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>66</v>
+        <v>141</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>238</v>
+        <v>424</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>240</v>
-      </c>
+        <v>425</v>
+      </c>
+      <c r="M70" s="2"/>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
         <v>43</v>
       </c>
       <c r="P70" s="2"/>
       <c r="Q70" t="s" s="2">
-        <v>251</v>
+        <v>43</v>
       </c>
       <c r="R70" t="s" s="2">
         <v>43</v>
@@ -9443,13 +9340,13 @@
         <v>43</v>
       </c>
       <c r="W70" t="s" s="2">
-        <v>43</v>
+        <v>206</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>43</v>
+        <v>426</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>43</v>
+        <v>427</v>
       </c>
       <c r="Z70" t="s" s="2">
         <v>43</v>
@@ -9467,13 +9364,13 @@
         <v>43</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>241</v>
+        <v>423</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>43</v>
@@ -9485,10 +9382,10 @@
         <v>43</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>43</v>
+        <v>421</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>96</v>
+        <v>428</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>43</v>
@@ -9496,7 +9393,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>327</v>
+        <v>429</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9507,7 +9404,7 @@
         <v>41</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>43</v>
@@ -9519,13 +9416,13 @@
         <v>43</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>253</v>
+        <v>119</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>254</v>
+        <v>120</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>244</v>
+        <v>121</v>
       </c>
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
@@ -9576,7 +9473,7 @@
         <v>43</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>245</v>
+        <v>122</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>41</v>
@@ -9597,7 +9494,7 @@
         <v>43</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>96</v>
+        <v>123</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>43</v>
@@ -9605,18 +9502,18 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>328</v>
+        <v>430</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>43</v>
+        <v>98</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="F72" t="s" s="2">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="G72" t="s" s="2">
         <v>43</v>
@@ -9625,29 +9522,27 @@
         <v>43</v>
       </c>
       <c r="I72" t="s" s="2">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>66</v>
+        <v>99</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>256</v>
+        <v>100</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>257</v>
+        <v>125</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>259</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
         <v>43</v>
       </c>
       <c r="P72" s="2"/>
       <c r="Q72" t="s" s="2">
-        <v>260</v>
+        <v>43</v>
       </c>
       <c r="R72" t="s" s="2">
         <v>43</v>
@@ -9677,25 +9572,25 @@
         <v>43</v>
       </c>
       <c r="AA72" t="s" s="2">
-        <v>43</v>
+        <v>126</v>
       </c>
       <c r="AB72" t="s" s="2">
-        <v>43</v>
+        <v>127</v>
       </c>
       <c r="AC72" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AD72" t="s" s="2">
-        <v>43</v>
+        <v>128</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>261</v>
+        <v>129</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="AH72" t="s" s="2">
         <v>43</v>
@@ -9707,10 +9602,10 @@
         <v>43</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>262</v>
+        <v>43</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>263</v>
+        <v>123</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>43</v>
@@ -9718,7 +9613,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>329</v>
+        <v>431</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -9729,7 +9624,7 @@
         <v>41</v>
       </c>
       <c r="F73" t="s" s="2">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="G73" t="s" s="2">
         <v>43</v>
@@ -9741,18 +9636,20 @@
         <v>54</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>119</v>
+        <v>213</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>265</v>
+        <v>214</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>266</v>
+        <v>215</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="N73" s="2"/>
+        <v>216</v>
+      </c>
+      <c r="N73" t="s" s="2">
+        <v>217</v>
+      </c>
       <c r="O73" t="s" s="2">
         <v>43</v>
       </c>
@@ -9788,25 +9685,23 @@
         <v>43</v>
       </c>
       <c r="AA73" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB73" t="s" s="2">
-        <v>43</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="AB73" s="2"/>
       <c r="AC73" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AD73" t="s" s="2">
-        <v>43</v>
+        <v>128</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>268</v>
+        <v>219</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="AH73" t="s" s="2">
         <v>43</v>
@@ -9818,10 +9713,10 @@
         <v>43</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>269</v>
+        <v>220</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>270</v>
+        <v>221</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>43</v>
@@ -9829,18 +9724,20 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="B74" s="2"/>
+        <v>431</v>
+      </c>
+      <c r="B74" t="s" s="2">
+        <v>222</v>
+      </c>
       <c r="C74" t="s" s="2">
         <v>43</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="F74" t="s" s="2">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="G74" t="s" s="2">
         <v>43</v>
@@ -9852,17 +9749,19 @@
         <v>54</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>72</v>
+        <v>213</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>272</v>
+        <v>214</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="M74" s="2"/>
+        <v>215</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>216</v>
+      </c>
       <c r="N74" t="s" s="2">
-        <v>274</v>
+        <v>217</v>
       </c>
       <c r="O74" t="s" s="2">
         <v>43</v>
@@ -9887,13 +9786,13 @@
         <v>43</v>
       </c>
       <c r="W74" t="s" s="2">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>43</v>
+        <v>291</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>43</v>
+        <v>427</v>
       </c>
       <c r="Z74" t="s" s="2">
         <v>43</v>
@@ -9911,13 +9810,13 @@
         <v>43</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>275</v>
+        <v>219</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="AH74" t="s" s="2">
         <v>43</v>
@@ -9929,10 +9828,10 @@
         <v>43</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>276</v>
+        <v>220</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>277</v>
+        <v>221</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>43</v>
@@ -9940,7 +9839,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>331</v>
+        <v>432</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -9948,7 +9847,7 @@
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="F75" t="s" s="2">
         <v>53</v>
@@ -9960,21 +9859,19 @@
         <v>43</v>
       </c>
       <c r="I75" t="s" s="2">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="J75" t="s" s="2">
         <v>119</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>279</v>
+        <v>120</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>280</v>
+        <v>121</v>
       </c>
       <c r="M75" s="2"/>
-      <c r="N75" t="s" s="2">
-        <v>281</v>
-      </c>
+      <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
         <v>43</v>
       </c>
@@ -10022,7 +9919,7 @@
         <v>43</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>282</v>
+        <v>122</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>41</v>
@@ -10040,10 +9937,10 @@
         <v>43</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>283</v>
+        <v>43</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>284</v>
+        <v>123</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>43</v>
@@ -10051,7 +9948,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>332</v>
+        <v>433</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10062,7 +9959,7 @@
         <v>41</v>
       </c>
       <c r="F76" t="s" s="2">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="G76" t="s" s="2">
         <v>43</v>
@@ -10071,23 +9968,19 @@
         <v>43</v>
       </c>
       <c r="I76" t="s" s="2">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>286</v>
+        <v>99</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>287</v>
+        <v>225</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="M76" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="N76" t="s" s="2">
-        <v>290</v>
-      </c>
+        <v>226</v>
+      </c>
+      <c r="M76" s="2"/>
+      <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
         <v>43</v>
       </c>
@@ -10123,25 +10016,25 @@
         <v>43</v>
       </c>
       <c r="AA76" t="s" s="2">
-        <v>43</v>
+        <v>126</v>
       </c>
       <c r="AB76" t="s" s="2">
-        <v>43</v>
+        <v>127</v>
       </c>
       <c r="AC76" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AD76" t="s" s="2">
-        <v>43</v>
+        <v>128</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>291</v>
+        <v>129</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="AH76" t="s" s="2">
         <v>43</v>
@@ -10153,10 +10046,10 @@
         <v>43</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>292</v>
+        <v>43</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>293</v>
+        <v>43</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>43</v>
@@ -10164,9 +10057,11 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="B77" s="2"/>
+        <v>433</v>
+      </c>
+      <c r="B77" t="s" s="2">
+        <v>227</v>
+      </c>
       <c r="C77" t="s" s="2">
         <v>43</v>
       </c>
@@ -10175,7 +10070,7 @@
         <v>41</v>
       </c>
       <c r="F77" t="s" s="2">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="G77" t="s" s="2">
         <v>43</v>
@@ -10184,23 +10079,19 @@
         <v>43</v>
       </c>
       <c r="I77" t="s" s="2">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>119</v>
+        <v>228</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>295</v>
+        <v>229</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>298</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="M77" s="2"/>
+      <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
         <v>43</v>
       </c>
@@ -10248,13 +10139,13 @@
         <v>43</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>299</v>
+        <v>129</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="AH77" t="s" s="2">
         <v>43</v>
@@ -10266,10 +10157,10 @@
         <v>43</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>300</v>
+        <v>43</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>301</v>
+        <v>43</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>43</v>
@@ -10277,11 +10168,11 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>334</v>
+        <v>434</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
-        <v>335</v>
+        <v>43</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
@@ -10300,24 +10191,26 @@
         <v>54</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>336</v>
+        <v>66</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>337</v>
+        <v>232</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="M78" s="2"/>
+        <v>233</v>
+      </c>
+      <c r="M78" t="s" s="2">
+        <v>234</v>
+      </c>
       <c r="N78" t="s" s="2">
-        <v>339</v>
+        <v>235</v>
       </c>
       <c r="O78" t="s" s="2">
         <v>43</v>
       </c>
       <c r="P78" s="2"/>
       <c r="Q78" t="s" s="2">
-        <v>43</v>
+        <v>236</v>
       </c>
       <c r="R78" t="s" s="2">
         <v>43</v>
@@ -10359,7 +10252,7 @@
         <v>43</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>334</v>
+        <v>237</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>41</v>
@@ -10374,25 +10267,25 @@
         <v>43</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>340</v>
+        <v>43</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>341</v>
+        <v>238</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>342</v>
+        <v>239</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>343</v>
+        <v>43</v>
       </c>
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>344</v>
+        <v>435</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
-        <v>345</v>
+        <v>43</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
@@ -10411,20 +10304,18 @@
         <v>54</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>346</v>
+        <v>119</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>347</v>
+        <v>241</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>348</v>
+        <v>242</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="N79" t="s" s="2">
-        <v>350</v>
-      </c>
+        <v>243</v>
+      </c>
+      <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
         <v>43</v>
       </c>
@@ -10472,7 +10363,7 @@
         <v>43</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>344</v>
+        <v>244</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>41</v>
@@ -10487,29 +10378,29 @@
         <v>43</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>351</v>
+        <v>43</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>352</v>
+        <v>245</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>353</v>
+        <v>246</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>354</v>
+        <v>43</v>
       </c>
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>355</v>
+        <v>436</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
-        <v>356</v>
+        <v>43</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" t="s" s="2">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="F80" t="s" s="2">
         <v>53</v>
@@ -10524,19 +10415,17 @@
         <v>54</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>357</v>
+        <v>72</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>358</v>
+        <v>248</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="M80" t="s" s="2">
-        <v>360</v>
-      </c>
+        <v>249</v>
+      </c>
+      <c r="M80" s="2"/>
       <c r="N80" t="s" s="2">
-        <v>361</v>
+        <v>250</v>
       </c>
       <c r="O80" t="s" s="2">
         <v>43</v>
@@ -10585,7 +10474,7 @@
         <v>43</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>355</v>
+        <v>251</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>41</v>
@@ -10600,29 +10489,29 @@
         <v>43</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>362</v>
+        <v>43</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>363</v>
+        <v>252</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>364</v>
+        <v>253</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>365</v>
+        <v>43</v>
       </c>
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>366</v>
+        <v>437</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
-        <v>367</v>
+        <v>43</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="F81" t="s" s="2">
         <v>53</v>
@@ -10637,19 +10526,17 @@
         <v>54</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>368</v>
+        <v>119</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>369</v>
+        <v>255</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="M81" t="s" s="2">
-        <v>371</v>
-      </c>
+        <v>256</v>
+      </c>
+      <c r="M81" s="2"/>
       <c r="N81" t="s" s="2">
-        <v>372</v>
+        <v>257</v>
       </c>
       <c r="O81" t="s" s="2">
         <v>43</v>
@@ -10698,7 +10585,7 @@
         <v>43</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>366</v>
+        <v>258</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>41</v>
@@ -10716,29 +10603,29 @@
         <v>43</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>373</v>
+        <v>259</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>374</v>
+        <v>260</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>375</v>
+        <v>43</v>
       </c>
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>376</v>
+        <v>438</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
-        <v>377</v>
+        <v>43</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F82" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="G82" t="s" s="2">
         <v>43</v>
@@ -10750,16 +10637,20 @@
         <v>54</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>378</v>
+        <v>262</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>379</v>
+        <v>263</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="M82" s="2"/>
-      <c r="N82" s="2"/>
+        <v>264</v>
+      </c>
+      <c r="M82" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="N82" t="s" s="2">
+        <v>266</v>
+      </c>
       <c r="O82" t="s" s="2">
         <v>43</v>
       </c>
@@ -10807,36 +10698,36 @@
         <v>43</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>376</v>
+        <v>267</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG82" t="s" s="2">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="AH82" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>381</v>
+        <v>43</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>382</v>
+        <v>43</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>383</v>
+        <v>268</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>384</v>
+        <v>269</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>385</v>
+        <v>43</v>
       </c>
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>386</v>
+        <v>439</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -10856,19 +10747,23 @@
         <v>43</v>
       </c>
       <c r="I83" t="s" s="2">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="J83" t="s" s="2">
         <v>119</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>120</v>
+        <v>271</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="M83" s="2"/>
-      <c r="N83" s="2"/>
+        <v>272</v>
+      </c>
+      <c r="M83" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="N83" t="s" s="2">
+        <v>274</v>
+      </c>
       <c r="O83" t="s" s="2">
         <v>43</v>
       </c>
@@ -10916,7 +10811,7 @@
         <v>43</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>122</v>
+        <v>275</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>41</v>
@@ -10934,10 +10829,10 @@
         <v>43</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>43</v>
+        <v>276</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>123</v>
+        <v>277</v>
       </c>
       <c r="AM83" t="s" s="2">
         <v>43</v>
@@ -10945,11 +10840,11 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>387</v>
+        <v>440</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
-        <v>98</v>
+        <v>43</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" t="s" s="2">
@@ -10968,18 +10863,20 @@
         <v>43</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>99</v>
+        <v>441</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>100</v>
+        <v>442</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>125</v>
+        <v>443</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="N84" s="2"/>
+        <v>444</v>
+      </c>
+      <c r="N84" t="s" s="2">
+        <v>445</v>
+      </c>
       <c r="O84" t="s" s="2">
         <v>43</v>
       </c>
@@ -11027,7 +10924,7 @@
         <v>43</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>129</v>
+        <v>440</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>41</v>
@@ -11045,4673 +10942,17 @@
         <v>43</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>43</v>
+        <v>421</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>123</v>
+        <v>446</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="85" hidden="true">
-      <c r="A85" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="B85" s="2"/>
-      <c r="C85" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="D85" s="2"/>
-      <c r="E85" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F85" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G85" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="H85" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="I85" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="J85" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="K85" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="L85" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="M85" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="N85" s="2"/>
-      <c r="O85" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="P85" s="2"/>
-      <c r="Q85" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="R85" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="S85" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="T85" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="U85" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="V85" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="W85" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X85" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Y85" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Z85" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA85" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB85" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC85" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD85" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE85" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="AF85" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG85" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH85" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI85" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AJ85" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK85" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AL85" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AM85" t="s" s="2">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="86" hidden="true">
-      <c r="A86" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="B86" s="2"/>
-      <c r="C86" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="D86" s="2"/>
-      <c r="E86" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F86" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="G86" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="H86" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="I86" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="J86" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="K86" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="L86" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="M86" s="2"/>
-      <c r="N86" s="2"/>
-      <c r="O86" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="P86" s="2"/>
-      <c r="Q86" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="R86" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="S86" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="T86" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="U86" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="V86" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="W86" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="X86" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="Y86" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="Z86" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA86" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB86" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC86" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD86" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE86" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="AF86" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG86" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AH86" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI86" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AJ86" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="AK86" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="AL86" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="AM86" t="s" s="2">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="87" hidden="true">
-      <c r="A87" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="B87" s="2"/>
-      <c r="C87" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="D87" s="2"/>
-      <c r="E87" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="F87" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="G87" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="H87" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="I87" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="J87" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="K87" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="L87" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="M87" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="N87" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="O87" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="P87" s="2"/>
-      <c r="Q87" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="R87" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="S87" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="T87" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="U87" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="V87" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="W87" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X87" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Y87" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Z87" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA87" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB87" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC87" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD87" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE87" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="AF87" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AG87" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AH87" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI87" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AJ87" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="AK87" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="AL87" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="AM87" t="s" s="2">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="88" hidden="true">
-      <c r="A88" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="B88" s="2"/>
-      <c r="C88" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="D88" s="2"/>
-      <c r="E88" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F88" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G88" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="H88" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="I88" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="J88" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="K88" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="L88" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="M88" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="N88" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="O88" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="P88" s="2"/>
-      <c r="Q88" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="R88" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="S88" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="T88" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="U88" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="V88" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="W88" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X88" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Y88" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Z88" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA88" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB88" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC88" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD88" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE88" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="AF88" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG88" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH88" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI88" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AJ88" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK88" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="AL88" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="AM88" t="s" s="2">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="89" hidden="true">
-      <c r="A89" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="B89" s="2"/>
-      <c r="C89" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="D89" s="2"/>
-      <c r="E89" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F89" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G89" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="H89" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="I89" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="J89" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="K89" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="L89" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="M89" s="2"/>
-      <c r="N89" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="O89" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="P89" s="2"/>
-      <c r="Q89" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="R89" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="S89" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="T89" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="U89" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="V89" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="W89" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X89" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Y89" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Z89" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA89" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB89" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC89" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD89" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE89" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="AF89" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG89" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH89" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI89" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AJ89" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK89" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="AL89" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="AM89" t="s" s="2">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="90" hidden="true">
-      <c r="A90" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="B90" s="2"/>
-      <c r="C90" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="D90" s="2"/>
-      <c r="E90" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F90" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G90" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="H90" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="I90" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="J90" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="K90" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="L90" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="M90" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="N90" s="2"/>
-      <c r="O90" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="P90" s="2"/>
-      <c r="Q90" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="R90" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="S90" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="T90" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="U90" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="V90" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="W90" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X90" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Y90" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Z90" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA90" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB90" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC90" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD90" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE90" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="AF90" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG90" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH90" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI90" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AJ90" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK90" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AL90" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="AM90" t="s" s="2">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="91" hidden="true">
-      <c r="A91" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="B91" s="2"/>
-      <c r="C91" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="D91" s="2"/>
-      <c r="E91" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F91" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G91" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="H91" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="I91" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="J91" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="K91" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="L91" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="M91" s="2"/>
-      <c r="N91" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="O91" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="P91" s="2"/>
-      <c r="Q91" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="R91" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="S91" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="T91" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="U91" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="V91" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="W91" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X91" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Y91" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Z91" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA91" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB91" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC91" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD91" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE91" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="AF91" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG91" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH91" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI91" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="AJ91" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK91" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="AL91" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="AM91" t="s" s="2">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="92" hidden="true">
-      <c r="A92" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="B92" s="2"/>
-      <c r="C92" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="D92" s="2"/>
-      <c r="E92" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F92" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="G92" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="H92" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="I92" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="J92" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="K92" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="L92" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="M92" s="2"/>
-      <c r="N92" s="2"/>
-      <c r="O92" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="P92" s="2"/>
-      <c r="Q92" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="R92" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="S92" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="T92" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="U92" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="V92" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="W92" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X92" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Y92" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Z92" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA92" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB92" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC92" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD92" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE92" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="AF92" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG92" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AH92" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI92" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AJ92" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK92" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AL92" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="AM92" t="s" s="2">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="93" hidden="true">
-      <c r="A93" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="B93" s="2"/>
-      <c r="C93" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="D93" s="2"/>
-      <c r="E93" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F93" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G93" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="H93" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="I93" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="J93" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="K93" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="L93" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="M93" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="N93" s="2"/>
-      <c r="O93" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="P93" s="2"/>
-      <c r="Q93" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="R93" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="S93" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="T93" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="U93" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="V93" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="W93" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X93" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Y93" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Z93" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA93" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB93" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC93" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD93" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE93" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="AF93" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG93" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH93" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI93" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AJ93" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK93" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AL93" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="AM93" t="s" s="2">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="94" hidden="true">
-      <c r="A94" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="B94" s="2"/>
-      <c r="C94" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="D94" s="2"/>
-      <c r="E94" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F94" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G94" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="H94" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="I94" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="J94" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="K94" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="L94" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="M94" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="N94" s="2"/>
-      <c r="O94" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="P94" s="2"/>
-      <c r="Q94" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="R94" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="S94" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="T94" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="U94" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="V94" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="W94" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X94" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Y94" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Z94" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA94" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB94" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC94" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD94" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE94" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="AF94" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG94" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH94" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI94" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AJ94" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK94" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AL94" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AM94" t="s" s="2">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="95" hidden="true">
-      <c r="A95" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="B95" s="2"/>
-      <c r="C95" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="D95" s="2"/>
-      <c r="E95" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F95" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="G95" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="H95" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="I95" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="J95" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="K95" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="L95" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="M95" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="N95" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="O95" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="P95" s="2"/>
-      <c r="Q95" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="R95" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="S95" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="T95" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="U95" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="V95" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="W95" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X95" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Y95" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Z95" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA95" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB95" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC95" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD95" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE95" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="AF95" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG95" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AH95" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI95" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AJ95" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK95" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AL95" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="AM95" t="s" s="2">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="96" hidden="true">
-      <c r="A96" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="B96" s="2"/>
-      <c r="C96" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="D96" s="2"/>
-      <c r="E96" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="F96" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="G96" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="H96" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="I96" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="J96" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="K96" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="L96" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="M96" s="2"/>
-      <c r="N96" s="2"/>
-      <c r="O96" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="P96" s="2"/>
-      <c r="Q96" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="R96" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="S96" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="T96" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="U96" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="V96" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="W96" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X96" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Y96" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Z96" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA96" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB96" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC96" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD96" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE96" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="AF96" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AG96" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AH96" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI96" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AJ96" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK96" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AL96" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="AM96" t="s" s="2">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="97" hidden="true">
-      <c r="A97" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="B97" s="2"/>
-      <c r="C97" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="D97" s="2"/>
-      <c r="E97" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F97" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="G97" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="H97" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="I97" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="J97" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="K97" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="L97" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="M97" s="2"/>
-      <c r="N97" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="O97" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="P97" s="2"/>
-      <c r="Q97" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="R97" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="S97" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="T97" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="U97" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="V97" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="W97" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X97" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Y97" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Z97" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA97" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB97" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC97" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD97" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE97" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="AF97" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG97" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AH97" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI97" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AJ97" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK97" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="AL97" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="AM97" t="s" s="2">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="98" hidden="true">
-      <c r="A98" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="B98" s="2"/>
-      <c r="C98" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="D98" s="2"/>
-      <c r="E98" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F98" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G98" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="H98" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="I98" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="J98" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="K98" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="L98" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="M98" s="2"/>
-      <c r="N98" s="2"/>
-      <c r="O98" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="P98" s="2"/>
-      <c r="Q98" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="R98" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="S98" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="T98" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="U98" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="V98" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="W98" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="X98" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="Y98" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="Z98" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA98" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB98" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC98" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD98" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE98" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="AF98" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG98" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH98" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI98" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AJ98" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK98" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="AL98" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="AM98" t="s" s="2">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="99" hidden="true">
-      <c r="A99" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="B99" s="2"/>
-      <c r="C99" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="D99" s="2"/>
-      <c r="E99" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F99" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="G99" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="H99" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="I99" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="J99" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="K99" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="L99" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="M99" s="2"/>
-      <c r="N99" s="2"/>
-      <c r="O99" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="P99" s="2"/>
-      <c r="Q99" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="R99" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="S99" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="T99" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="U99" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="V99" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="W99" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X99" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Y99" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Z99" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA99" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB99" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC99" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD99" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE99" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="AF99" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG99" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AH99" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI99" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AJ99" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK99" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AL99" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="AM99" t="s" s="2">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="100" hidden="true">
-      <c r="A100" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="B100" s="2"/>
-      <c r="C100" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="D100" s="2"/>
-      <c r="E100" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F100" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G100" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="H100" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="I100" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="J100" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="K100" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="L100" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="M100" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="N100" s="2"/>
-      <c r="O100" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="P100" s="2"/>
-      <c r="Q100" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="R100" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="S100" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="T100" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="U100" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="V100" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="W100" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X100" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Y100" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Z100" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA100" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="AB100" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="AC100" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD100" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="AE100" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="AF100" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG100" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH100" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI100" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AJ100" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK100" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AL100" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="AM100" t="s" s="2">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="101" hidden="true">
-      <c r="A101" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="B101" s="2"/>
-      <c r="C101" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="D101" s="2"/>
-      <c r="E101" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F101" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G101" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="H101" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="I101" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="J101" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="K101" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="L101" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="M101" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="N101" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="O101" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="P101" s="2"/>
-      <c r="Q101" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="R101" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="S101" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="T101" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="U101" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="V101" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="W101" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X101" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Y101" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Z101" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA101" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="AB101" s="2"/>
-      <c r="AC101" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD101" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="AE101" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="AF101" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG101" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH101" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI101" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AJ101" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK101" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="AL101" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="AM101" t="s" s="2">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="102" hidden="true">
-      <c r="A102" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="B102" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="C102" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="D102" s="2"/>
-      <c r="E102" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F102" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G102" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="H102" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="I102" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="J102" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="K102" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="L102" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="M102" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="N102" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="O102" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="P102" s="2"/>
-      <c r="Q102" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="R102" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="S102" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="T102" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="U102" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="V102" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="W102" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X102" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="Y102" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="Z102" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA102" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB102" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC102" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD102" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE102" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="AF102" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG102" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH102" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI102" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AJ102" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK102" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="AL102" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="AM102" t="s" s="2">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="103" hidden="true">
-      <c r="A103" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="B103" s="2"/>
-      <c r="C103" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="D103" s="2"/>
-      <c r="E103" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F103" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="G103" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="H103" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="I103" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="J103" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="K103" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="L103" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="M103" s="2"/>
-      <c r="N103" s="2"/>
-      <c r="O103" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="P103" s="2"/>
-      <c r="Q103" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="R103" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="S103" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="T103" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="U103" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="V103" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="W103" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X103" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Y103" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Z103" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA103" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB103" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC103" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD103" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE103" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="AF103" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG103" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AH103" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI103" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AJ103" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK103" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AL103" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="AM103" t="s" s="2">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="104" hidden="true">
-      <c r="A104" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="B104" s="2"/>
-      <c r="C104" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="D104" s="2"/>
-      <c r="E104" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F104" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G104" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="H104" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="I104" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="J104" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="K104" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="L104" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="M104" s="2"/>
-      <c r="N104" s="2"/>
-      <c r="O104" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="P104" s="2"/>
-      <c r="Q104" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="R104" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="S104" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="T104" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="U104" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="V104" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="W104" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X104" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Y104" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Z104" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA104" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="AB104" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="AC104" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD104" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="AE104" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="AF104" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG104" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH104" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI104" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AJ104" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK104" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AL104" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AM104" t="s" s="2">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="105" hidden="true">
-      <c r="A105" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="B105" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="C105" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="D105" s="2"/>
-      <c r="E105" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F105" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G105" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="H105" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="I105" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="J105" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="K105" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="L105" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="M105" s="2"/>
-      <c r="N105" s="2"/>
-      <c r="O105" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="P105" s="2"/>
-      <c r="Q105" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="R105" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="S105" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="T105" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="U105" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="V105" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="W105" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X105" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Y105" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Z105" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA105" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB105" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC105" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD105" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE105" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="AF105" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG105" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH105" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI105" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AJ105" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK105" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AL105" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AM105" t="s" s="2">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="106" hidden="true">
-      <c r="A106" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="B106" s="2"/>
-      <c r="C106" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="D106" s="2"/>
-      <c r="E106" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F106" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="G106" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="H106" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="I106" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="J106" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="K106" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="L106" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="M106" s="2"/>
-      <c r="N106" s="2"/>
-      <c r="O106" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="P106" s="2"/>
-      <c r="Q106" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="R106" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="S106" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="T106" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="U106" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="V106" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="W106" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X106" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Y106" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Z106" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA106" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB106" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC106" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD106" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE106" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="AF106" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG106" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AH106" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI106" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AJ106" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK106" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AL106" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="AM106" t="s" s="2">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="107" hidden="true">
-      <c r="A107" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="B107" s="2"/>
-      <c r="C107" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="D107" s="2"/>
-      <c r="E107" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F107" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G107" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="H107" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="I107" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="J107" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="K107" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="L107" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="M107" s="2"/>
-      <c r="N107" s="2"/>
-      <c r="O107" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="P107" s="2"/>
-      <c r="Q107" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="R107" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="S107" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="T107" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="U107" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="V107" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="W107" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X107" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Y107" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Z107" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA107" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="AB107" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="AC107" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD107" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="AE107" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="AF107" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG107" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH107" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI107" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AJ107" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK107" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AL107" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AM107" t="s" s="2">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="108" hidden="true">
-      <c r="A108" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="B108" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="C108" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="D108" s="2"/>
-      <c r="E108" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="F108" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="G108" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="H108" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="I108" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="J108" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="K108" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="L108" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="M108" s="2"/>
-      <c r="N108" s="2"/>
-      <c r="O108" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="P108" s="2"/>
-      <c r="Q108" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="R108" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="S108" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="T108" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="U108" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="V108" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="W108" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X108" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Y108" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Z108" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA108" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB108" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC108" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD108" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE108" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="AF108" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG108" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH108" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI108" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AJ108" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK108" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AL108" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AM108" t="s" s="2">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="109" hidden="true">
-      <c r="A109" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="B109" s="2"/>
-      <c r="C109" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="D109" s="2"/>
-      <c r="E109" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F109" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="G109" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="H109" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="I109" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="J109" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="K109" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="L109" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="M109" s="2"/>
-      <c r="N109" s="2"/>
-      <c r="O109" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="P109" s="2"/>
-      <c r="Q109" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="R109" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="S109" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="T109" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="U109" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="V109" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="W109" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X109" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Y109" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Z109" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA109" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB109" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC109" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD109" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE109" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="AF109" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG109" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AH109" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI109" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AJ109" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK109" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AL109" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="AM109" t="s" s="2">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="110" hidden="true">
-      <c r="A110" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="B110" s="2"/>
-      <c r="C110" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="D110" s="2"/>
-      <c r="E110" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F110" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G110" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="H110" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="I110" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="J110" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="K110" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="L110" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="M110" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="N110" s="2"/>
-      <c r="O110" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="P110" s="2"/>
-      <c r="Q110" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="R110" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="S110" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="T110" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="U110" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="V110" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="W110" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X110" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Y110" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Z110" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA110" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="AB110" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="AC110" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD110" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="AE110" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="AF110" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG110" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH110" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI110" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AJ110" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK110" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AL110" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="AM110" t="s" s="2">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="111" hidden="true">
-      <c r="A111" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="B111" s="2"/>
-      <c r="C111" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="D111" s="2"/>
-      <c r="E111" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="F111" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="G111" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="H111" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="I111" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="J111" t="s" s="2">
-        <v>66</v>
-      </c>
-      <c r="K111" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="L111" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="M111" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="N111" s="2"/>
-      <c r="O111" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="P111" s="2"/>
-      <c r="Q111" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="R111" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="S111" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="T111" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="U111" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="V111" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="W111" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X111" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Y111" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Z111" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA111" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB111" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC111" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD111" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE111" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="AF111" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AG111" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AH111" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI111" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AJ111" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK111" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AL111" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AM111" t="s" s="2">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="112" hidden="true">
-      <c r="A112" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="B112" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="C112" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="D112" s="2"/>
-      <c r="E112" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F112" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="G112" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="H112" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="I112" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="J112" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="K112" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="L112" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="M112" s="2"/>
-      <c r="N112" s="2"/>
-      <c r="O112" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="P112" s="2"/>
-      <c r="Q112" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="R112" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="S112" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="T112" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="U112" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="V112" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="W112" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X112" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Y112" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Z112" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA112" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB112" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC112" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD112" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE112" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="AF112" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG112" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AH112" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI112" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AJ112" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK112" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AL112" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AM112" t="s" s="2">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="113" hidden="true">
-      <c r="A113" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="B113" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="C113" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="D113" s="2"/>
-      <c r="E113" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="F113" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="G113" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="H113" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="I113" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="J113" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="K113" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="L113" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="M113" s="2"/>
-      <c r="N113" s="2"/>
-      <c r="O113" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="P113" s="2"/>
-      <c r="Q113" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="R113" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="S113" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="T113" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="U113" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="V113" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="W113" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X113" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Y113" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Z113" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA113" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB113" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC113" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD113" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE113" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="AF113" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG113" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH113" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI113" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AJ113" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK113" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AL113" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AM113" t="s" s="2">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="114" hidden="true">
-      <c r="A114" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="B114" s="2"/>
-      <c r="C114" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="D114" s="2"/>
-      <c r="E114" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F114" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="G114" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="H114" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="I114" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="J114" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="K114" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="L114" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="M114" s="2"/>
-      <c r="N114" s="2"/>
-      <c r="O114" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="P114" s="2"/>
-      <c r="Q114" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="R114" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="S114" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="T114" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="U114" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="V114" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="W114" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X114" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Y114" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Z114" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA114" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB114" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC114" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD114" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE114" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="AF114" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG114" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AH114" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI114" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AJ114" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK114" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AL114" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="AM114" t="s" s="2">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="115" hidden="true">
-      <c r="A115" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="B115" s="2"/>
-      <c r="C115" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="D115" s="2"/>
-      <c r="E115" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F115" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G115" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="H115" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="I115" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="J115" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="K115" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="L115" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="M115" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="N115" s="2"/>
-      <c r="O115" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="P115" s="2"/>
-      <c r="Q115" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="R115" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="S115" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="T115" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="U115" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="V115" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="W115" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X115" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Y115" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Z115" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA115" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="AB115" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="AC115" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD115" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="AE115" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="AF115" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG115" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH115" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI115" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AJ115" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK115" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AL115" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="AM115" t="s" s="2">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="116" hidden="true">
-      <c r="A116" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="B116" s="2"/>
-      <c r="C116" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="D116" s="2"/>
-      <c r="E116" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="F116" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="G116" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="H116" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="I116" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="J116" t="s" s="2">
-        <v>66</v>
-      </c>
-      <c r="K116" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="L116" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="M116" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="N116" s="2"/>
-      <c r="O116" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="P116" s="2"/>
-      <c r="Q116" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="R116" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="S116" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="T116" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="U116" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="V116" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="W116" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X116" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Y116" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Z116" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA116" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB116" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC116" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD116" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE116" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="AF116" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AG116" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AH116" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI116" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AJ116" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK116" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AL116" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AM116" t="s" s="2">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="117" hidden="true">
-      <c r="A117" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="B117" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="C117" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="D117" s="2"/>
-      <c r="E117" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F117" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="G117" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="H117" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="I117" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="J117" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="K117" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="L117" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="M117" s="2"/>
-      <c r="N117" s="2"/>
-      <c r="O117" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="P117" s="2"/>
-      <c r="Q117" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="R117" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="S117" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="T117" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="U117" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="V117" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="W117" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X117" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Y117" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Z117" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA117" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB117" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC117" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD117" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE117" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="AF117" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG117" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AH117" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI117" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AJ117" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK117" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AL117" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AM117" t="s" s="2">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="118" hidden="true">
-      <c r="A118" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="B118" s="2"/>
-      <c r="C118" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="D118" s="2"/>
-      <c r="E118" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="F118" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="G118" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="H118" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="I118" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="J118" t="s" s="2">
-        <v>66</v>
-      </c>
-      <c r="K118" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="L118" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="M118" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="N118" s="2"/>
-      <c r="O118" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="P118" s="2"/>
-      <c r="Q118" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="R118" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="S118" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="T118" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="U118" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="V118" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="W118" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X118" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Y118" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Z118" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA118" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB118" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC118" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD118" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE118" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="AF118" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AG118" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AH118" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI118" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AJ118" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK118" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AL118" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AM118" t="s" s="2">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="119" hidden="true">
-      <c r="A119" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="B119" s="2"/>
-      <c r="C119" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="D119" s="2"/>
-      <c r="E119" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F119" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="G119" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="H119" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="I119" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="J119" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="K119" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="L119" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="M119" s="2"/>
-      <c r="N119" s="2"/>
-      <c r="O119" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="P119" s="2"/>
-      <c r="Q119" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="R119" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="S119" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="T119" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="U119" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="V119" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="W119" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X119" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Y119" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Z119" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA119" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB119" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC119" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD119" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE119" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="AF119" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG119" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AH119" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI119" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AJ119" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK119" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AL119" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AM119" t="s" s="2">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="120" hidden="true">
-      <c r="A120" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="B120" s="2"/>
-      <c r="C120" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="D120" s="2"/>
-      <c r="E120" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="F120" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="G120" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="H120" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="I120" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="J120" t="s" s="2">
-        <v>66</v>
-      </c>
-      <c r="K120" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="L120" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="M120" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="N120" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="O120" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="P120" s="2"/>
-      <c r="Q120" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="R120" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="S120" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="T120" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="U120" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="V120" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="W120" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X120" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Y120" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Z120" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA120" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB120" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC120" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD120" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE120" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="AF120" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG120" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AH120" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI120" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AJ120" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK120" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="AL120" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="AM120" t="s" s="2">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="121" hidden="true">
-      <c r="A121" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="B121" s="2"/>
-      <c r="C121" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="D121" s="2"/>
-      <c r="E121" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F121" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="G121" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="H121" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="I121" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="J121" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="K121" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="L121" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="M121" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="N121" s="2"/>
-      <c r="O121" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="P121" s="2"/>
-      <c r="Q121" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="R121" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="S121" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="T121" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="U121" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="V121" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="W121" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X121" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Y121" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Z121" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA121" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB121" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC121" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD121" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE121" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="AF121" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG121" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AH121" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI121" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AJ121" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK121" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="AL121" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="AM121" t="s" s="2">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="122" hidden="true">
-      <c r="A122" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="B122" s="2"/>
-      <c r="C122" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="D122" s="2"/>
-      <c r="E122" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="F122" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="G122" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="H122" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="I122" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="J122" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="K122" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="L122" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="M122" s="2"/>
-      <c r="N122" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="O122" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="P122" s="2"/>
-      <c r="Q122" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="R122" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="S122" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="T122" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="U122" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="V122" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="W122" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X122" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Y122" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Z122" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA122" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB122" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC122" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD122" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE122" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="AF122" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG122" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AH122" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI122" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AJ122" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK122" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="AL122" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="AM122" t="s" s="2">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="123" hidden="true">
-      <c r="A123" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="B123" s="2"/>
-      <c r="C123" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="D123" s="2"/>
-      <c r="E123" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="F123" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="G123" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="H123" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="I123" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="J123" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="K123" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="L123" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="M123" s="2"/>
-      <c r="N123" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="O123" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="P123" s="2"/>
-      <c r="Q123" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="R123" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="S123" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="T123" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="U123" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="V123" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="W123" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X123" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Y123" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Z123" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA123" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB123" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC123" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD123" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE123" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="AF123" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG123" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AH123" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI123" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AJ123" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK123" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="AL123" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="AM123" t="s" s="2">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="124" hidden="true">
-      <c r="A124" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="B124" s="2"/>
-      <c r="C124" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="D124" s="2"/>
-      <c r="E124" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F124" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="G124" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="H124" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="I124" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="J124" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="K124" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="L124" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="M124" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="N124" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="O124" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="P124" s="2"/>
-      <c r="Q124" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="R124" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="S124" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="T124" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="U124" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="V124" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="W124" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X124" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Y124" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Z124" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA124" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB124" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC124" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD124" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE124" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="AF124" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG124" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AH124" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI124" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AJ124" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK124" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="AL124" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="AM124" t="s" s="2">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="125" hidden="true">
-      <c r="A125" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="B125" s="2"/>
-      <c r="C125" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="D125" s="2"/>
-      <c r="E125" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F125" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="G125" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="H125" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="I125" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="J125" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="K125" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="L125" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="M125" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="N125" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="O125" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="P125" s="2"/>
-      <c r="Q125" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="R125" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="S125" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="T125" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="U125" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="V125" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="W125" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X125" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Y125" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Z125" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA125" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB125" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC125" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD125" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE125" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="AF125" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG125" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="AH125" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI125" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AJ125" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK125" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="AL125" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="AM125" t="s" s="2">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="126" hidden="true">
-      <c r="A126" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="B126" s="2"/>
-      <c r="C126" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="D126" s="2"/>
-      <c r="E126" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F126" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G126" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="H126" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="I126" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="J126" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="K126" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="L126" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="M126" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="N126" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="O126" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="P126" s="2"/>
-      <c r="Q126" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="R126" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="S126" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="T126" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="U126" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="V126" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="W126" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X126" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Y126" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Z126" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA126" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB126" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC126" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD126" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE126" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="AF126" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG126" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH126" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI126" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AJ126" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK126" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="AL126" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="AM126" t="s" s="2">
         <v>43</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AM126">
+  <autoFilter ref="A1:AM84">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -15721,7 +10962,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI125">
+  <conditionalFormatting sqref="A2:AI83">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
